--- a/results.xlsx
+++ b/results.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>score</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>result</t>
         </is>
       </c>
     </row>
@@ -460,17 +460,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1933519919984974</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f3d5ab0&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+        <v>0.0788642190000246</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.9999948860560048</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.796 x0_22 + -1.637 x0_12 + 1.592 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -478,17 +477,16 @@
         <v>1.1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4585199400025886</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f3d4760&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+        <v>0.1722263239998938</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.9999890681202659</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.814 x0_22 + -1.506 x0_12 + 1.519 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -496,17 +494,16 @@
         <v>1.2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4844796969991876</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f410d1b0ca0&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+        <v>0.129904045999865</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.9999861111307059</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.833 x0_22 + -1.370 x0_12 + 1.450 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -514,17 +511,16 @@
         <v>1.3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3309706019936129</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f3d7190&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+        <v>0.3201359529998626</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.9999880538440837</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.852 x0_22 + -1.230 x0_12 + 1.384 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -532,17 +528,16 @@
         <v>1.4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6687938929972006</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f3d4760&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+        <v>0.3049629160000222</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.9999892588347853</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.872 x0_22 + -1.083 x0_12 + 1.321 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -550,17 +545,16 @@
         <v>1.5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.04251615999965</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f3d4e50&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+        <v>0.5086636380001437</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.9999898506039617</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.892 x0_22 + -0.928 x0_12 + 1.261 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -568,17 +562,16 @@
         <v>1.600000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>2.318702482996741</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f3d7190&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+        <v>0.7120874320003168</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.9999904338189626</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.913 x0_22 + -0.766 x0_12 + 1.204 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -586,17 +579,16 @@
         <v>1.700000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>4.139380484994035</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f3d7f10&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+        <v>1.132902684999863</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.9999914061513431</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.934 x0_22 + -0.593 x0_12 + 1.149 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -604,17 +596,16 @@
         <v>1.800000000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>5.281743055005791</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f4275e0&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+        <v>1.744396681000126</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.9999925257775787</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.955 x0_22 + -0.409 x0_12 + 1.097 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -622,17 +613,16 @@
         <v>1.900000000000001</v>
       </c>
       <c r="B11" t="n">
-        <v>7.627464231991326</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f427eb0&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+        <v>3.54835303300024</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.9999951835940202</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.977 x0_22 + -0.211 x0_12 + 1.047 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -640,17 +630,16 @@
         <v>2.000000000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>8.792972498995368</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f427610&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+        <v>3.924807029000021</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.9999942167611714</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.000 x0_22 + 1.000 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -658,17 +647,16 @@
         <v>2.100000000000001</v>
       </c>
       <c r="B13" t="n">
-        <v>11.74275027199474</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f427460&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+        <v>6.775511330999962</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.9999943542261797</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.023 x0_22 + 0.229 x0_12 + 0.954 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -676,17 +664,16 @@
         <v>2.200000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>16.11143051699037</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f427fa0&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+        <v>10.96746674800033</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.9999950247004299</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.047 x0_22 + 0.476 x0_12 + 0.911 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -694,17 +681,16 @@
         <v>2.300000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>21.62986667299992</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f427610&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+        <v>14.71099984700004</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.999995431835396</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.071 x0_22 + 0.744 x0_12 + 0.870 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -712,17 +698,16 @@
         <v>2.400000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>38.14214904200344</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f447f40&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+        <v>20.92359983999995</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.9999960154221242</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.096 x0_22 + 1.035 x0_12 + 0.830 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -730,17 +715,16 @@
         <v>2.500000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>64.34495067999524</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f446a40&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+        <v>31.25207755199972</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.9999961827477354</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.121 x0_22 + 1.353 x0_12 + 0.793 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -748,17 +732,16 @@
         <v>2.600000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>68.8655508380034</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f447580&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+        <v>46.71105693299978</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.999996566733824</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.147 x0_22 + 1.700 x0_12 + 0.757 x0_11
+</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -766,17 +749,16 @@
         <v>2.700000000000002</v>
       </c>
       <c r="B19" t="n">
-        <v>104.0093538259971</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f447730&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+        <v>70.568090149</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.9999967711433021</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 0.165 x0_2 + 1.173 x0_22 + 0.104 x0_222 + -0.213 x0_1 + 2.079 x0_12 + 0.522 x0_122 + 0.722 x0_11 + -0.101 x0_112 + -0.538 x0_111
+</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -784,17 +766,16 @@
         <v>2.800000000000002</v>
       </c>
       <c r="B20" t="n">
-        <v>148.9070873180026</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f445300&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+        <v>106.0620921289997</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.9999963585302154</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 3590.382 x0_2 + 1.201 x0_22 + 2273.636 x0_222 + -4636.091 x0_1 + 2.495 x0_12 + 11376.366 x0_122 + 0.689 x0_11 + -2200.960 x0_112 + -11743.355 x0_111
+</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -802,17 +783,16 @@
         <v>2.900000000000002</v>
       </c>
       <c r="B21" t="n">
-        <v>216.5166469569958</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f403f427610&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+        <v>156.445587359</v>
+      </c>
+      <c r="C21" t="n">
         <v>0.9999962030676008</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = 1.228 x0_22 + 2.950 x0_12 + -56.942 x0_122 + 0.658 x0_11 + 56.942 x0_112
+</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -820,17 +800,16 @@
         <v>3.000000000000002</v>
       </c>
       <c r="B22" t="n">
-        <v>462.7598271780007</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SINDy(differentiation_method=FiniteDifference(axis=2),
-      feature_library=&lt;pysindy.feature_library.pde_library.PDELibrary object at 0x7f410d1b0070&gt;,
-      feature_names=['x0'], optimizer=STLSQ(alpha=1e-12, threshold=0.01))</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+        <v>244.6645604750001</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.9999956002874193</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(x0)' = -591.802 x0_2 + 1.257 x0_22 + -374.763 x0_222 + -4904.183 x0_1 + 3.451 x0_12 + 12483.850 x0_122 + 0.628 x0_11 + -1233.480 x0_112 + -12422.440 x0_111
+</t>
+        </is>
       </c>
     </row>
   </sheetData>
